--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,400 +46,415 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>arrived</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>would</t>
@@ -803,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,10 +826,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -872,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -890,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0.956989247311828</v>
@@ -922,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -940,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -964,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -972,13 +987,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.675</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -990,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8777089783281734</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>567</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>567</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1014,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1022,13 +1037,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5471698113207547</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1040,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1064,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1072,13 +1087,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4806201550387597</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1090,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.7389830508474576</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1114,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1122,13 +1137,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4545454545454545</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1140,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.7186147186147186</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="L8">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="M8">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1164,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1172,13 +1187,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.38</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1190,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1214,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1222,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3076923076923077</v>
+        <v>0.46</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1240,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.684931506849315</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1264,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1272,13 +1287,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2777777777777778</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1290,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.6637239165329053</v>
+        <v>0.6861958266452648</v>
       </c>
       <c r="L11">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="M11">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1314,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1322,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2233009708737864</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1340,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.6551724137931034</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1364,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1372,13 +1387,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2205882352941176</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1390,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.6363636363636364</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1414,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1422,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.211864406779661</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -1440,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.6304347826086957</v>
+        <v>0.640625</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1464,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1472,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1490,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.6265060240963856</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1514,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1522,13 +1537,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1839080459770115</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1540,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.6068376068376068</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1564,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1572,13 +1587,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1807228915662651</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1590,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.6056338028169014</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1614,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1622,13 +1637,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1504424778761062</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1640,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>0.6197183098591549</v>
+      </c>
+      <c r="L18">
         <v>44</v>
       </c>
-      <c r="K18">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L18">
-        <v>28</v>
-      </c>
       <c r="M18">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1664,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1672,13 +1687,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1384615384615385</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1690,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.5828571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1714,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1722,37 +1737,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.04519774011299435</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0.52</v>
+        <v>0.04</v>
       </c>
       <c r="F20">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>338</v>
+        <v>168</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.578125</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1764,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1772,37 +1787,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02777777777777778</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E21">
+        <v>0.3</v>
+      </c>
+      <c r="F21">
         <v>0.7</v>
       </c>
-      <c r="F21">
-        <v>0.3</v>
-      </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>700</v>
+        <v>129</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.5735294117647058</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1814,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1822,37 +1837,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01544401544401544</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>0.88</v>
+        <v>0.26</v>
       </c>
       <c r="F22">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1020</v>
+        <v>271</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.562874251497006</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L22">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M22">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1864,21 +1879,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.02747252747252747</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>0.66</v>
+      </c>
+      <c r="F23">
+        <v>0.34</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>708</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.5480769230769231</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1890,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1916,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.5111111111111111</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1942,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1994,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.4912280701754386</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2020,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.4871794871794872</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2072,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.4769230769230769</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2103,16 +2142,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.4698795180722892</v>
+        <v>0.4513618677042802</v>
       </c>
       <c r="L32">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M32">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2124,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>88</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.4693877551020408</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2150,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4586466165413534</v>
+        <v>0.4436274509803921</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2176,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>72</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.4489795918367347</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2202,21 +2241,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.4414414414414414</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2228,21 +2267,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.4146341463414634</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2254,21 +2293,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.4136986301369863</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L38">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2280,21 +2319,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>428</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.4093137254901961</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L39">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2306,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>241</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.4046692607003891</v>
+        <v>0.37</v>
       </c>
       <c r="L40">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2332,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>153</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.3823529411764706</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2358,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.3770491803278688</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2389,16 +2428,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.3580246913580247</v>
+        <v>0.3443708609271523</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2410,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>0.3538461538461539</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2436,21 +2475,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.3529411764705883</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2462,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K46">
-        <v>0.3492822966507177</v>
+        <v>0.3349282296650718</v>
       </c>
       <c r="L46">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2488,21 +2527,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K47">
-        <v>0.3492063492063492</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2514,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K48">
-        <v>0.3392857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2540,21 +2579,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.3383458646616541</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2566,21 +2605,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.3289473684210527</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2592,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.3225806451612903</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2618,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.3139072847682119</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L52">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2644,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>518</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.3095238095238095</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2670,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.3090909090909091</v>
+        <v>0.3125</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2693,24 +2732,24 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>0.3089343379978471</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L55">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2722,21 +2761,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>642</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.297029702970297</v>
+        <v>0.2874172185430464</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2748,73 +2787,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>71</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K57">
-        <v>0.2897196261682243</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L57">
         <v>31</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58">
-        <v>0.2882882882882883</v>
+        <v>0.2785622593068036</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>79</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59">
-        <v>0.2781456953642384</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="L59">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2826,21 +2865,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K60">
-        <v>0.2698412698412698</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2852,21 +2891,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K61">
-        <v>0.2661870503597122</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L61">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2878,47 +2917,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K62">
-        <v>0.2635135135135135</v>
+        <v>0.2546125461254612</v>
       </c>
       <c r="L62">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M62">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63">
-        <v>0.2601880877742947</v>
+        <v>0.25</v>
       </c>
       <c r="L63">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2930,21 +2969,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>236</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K64">
-        <v>0.2589285714285715</v>
+        <v>0.25</v>
       </c>
       <c r="L64">
+        <v>28</v>
+      </c>
+      <c r="M64">
         <v>29</v>
-      </c>
-      <c r="M64">
-        <v>30</v>
       </c>
       <c r="N64">
         <v>0.97</v>
@@ -2956,21 +2995,21 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K65">
-        <v>0.2586427656850192</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L65">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2979,24 +3018,24 @@
         <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>579</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K66">
-        <v>0.2571428571428571</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L66">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="M66">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="N66">
         <v>0.99</v>
@@ -3008,67 +3047,67 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>338</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67">
+        <v>0.2445652173913044</v>
+      </c>
+      <c r="L67">
+        <v>90</v>
+      </c>
+      <c r="M67">
         <v>93</v>
       </c>
-      <c r="K67">
-        <v>0.2560975609756098</v>
-      </c>
-      <c r="L67">
-        <v>42</v>
-      </c>
-      <c r="M67">
-        <v>42</v>
-      </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>122</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K68">
-        <v>0.2542372881355932</v>
+        <v>0.2439560439560439</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>44</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K69">
-        <v>0.25</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L69">
         <v>16</v>
@@ -3086,99 +3125,99 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K70">
-        <v>0.25</v>
+        <v>0.2236286919831224</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K71">
-        <v>0.2379182156133829</v>
+        <v>0.2195704057279236</v>
       </c>
       <c r="L71">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="M71">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>205</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K72">
-        <v>0.2335164835164835</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L72">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="M72">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="N72">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>279</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K73">
-        <v>0.2323232323232323</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3190,105 +3229,105 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K74">
-        <v>0.2222222222222222</v>
+        <v>0.214123006833713</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>56</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K75">
-        <v>0.2155172413793103</v>
+        <v>0.2126865671641791</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M75">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>91</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K76">
-        <v>0.2095238095238095</v>
+        <v>0.195</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>83</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K77">
-        <v>0.2062350119904077</v>
+        <v>0.1907090464547677</v>
       </c>
       <c r="L77">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M77">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
@@ -3299,42 +3338,42 @@
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K78">
-        <v>0.1931818181818182</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="L78">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M78">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>355</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K79">
-        <v>0.1739130434782609</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3346,47 +3385,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K80">
-        <v>0.1679389312977099</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L80">
         <v>22</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K81">
-        <v>0.1639344262295082</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3398,47 +3437,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K82">
-        <v>0.16</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L82">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>168</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K83">
-        <v>0.1559633027522936</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3450,21 +3489,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K84">
-        <v>0.1557177615571776</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L84">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3476,21 +3515,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>347</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K85">
-        <v>0.1550387596899225</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3502,15 +3541,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K86">
-        <v>0.145631067961165</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L86">
         <v>15</v>
@@ -3528,47 +3567,47 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K87">
-        <v>0.1447368421052632</v>
+        <v>0.16</v>
       </c>
       <c r="L87">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N87">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K88">
-        <v>0.1443298969072165</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L88">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3580,99 +3619,99 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>249</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K89">
-        <v>0.1407407407407407</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="L89">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>232</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K90">
-        <v>0.1397260273972603</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="L90">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N90">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>314</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K91">
-        <v>0.138655462184874</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L91">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M91">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>205</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K92">
-        <v>0.1299435028248588</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L92">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3684,255 +3723,255 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>154</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K93">
-        <v>0.1288343558282209</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K94">
-        <v>0.1280487804878049</v>
+        <v>0.1434720229555237</v>
       </c>
       <c r="L94">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M94">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="N94">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O94">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>143</v>
+        <v>597</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K95">
-        <v>0.1276595744680851</v>
+        <v>0.1342465753424658</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M95">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N95">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="O95">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>123</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K96">
-        <v>0.1255857544517338</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L96">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="N96">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O96">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>933</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K97">
-        <v>0.1255060728744939</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L97">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M97">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N97">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>216</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K98">
-        <v>0.1168831168831169</v>
+        <v>0.1294559099437148</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>136</v>
+        <v>928</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K99">
-        <v>0.116504854368932</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M99">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N99">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K100">
-        <v>0.1163793103448276</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="L100">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="M100">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="N100">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O100">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>615</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K101">
-        <v>0.108974358974359</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="L101">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K102">
-        <v>0.1066176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L102">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M102">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3944,449 +3983,501 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>243</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="K103">
-        <v>0.1060473269062226</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L103">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="M103">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="N103">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O103">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>1020</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K104">
-        <v>0.1020408163265306</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L104">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M104">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N104">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K105">
-        <v>0.1006711409395973</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L105">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M105">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>134</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K106">
-        <v>0.0918918918918919</v>
+        <v>0.1038394415357766</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>168</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K107">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="L107">
+        <v>15</v>
+      </c>
+      <c r="M107">
+        <v>16</v>
+      </c>
+      <c r="N107">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O107">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107">
         <v>132</v>
-      </c>
-      <c r="K107">
-        <v>0.08687615526802218</v>
-      </c>
-      <c r="L107">
-        <v>47</v>
-      </c>
-      <c r="M107">
-        <v>48</v>
-      </c>
-      <c r="N107">
-        <v>0.98</v>
-      </c>
-      <c r="O107">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P107" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>494</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K108">
-        <v>0.08670520231213873</v>
+        <v>0.09833024118738404</v>
       </c>
       <c r="L108">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M108">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N108">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O108">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>158</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K109">
-        <v>0.08317214700193423</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="L109">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M109">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N109">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O109">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>474</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K110">
-        <v>0.07435897435897436</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L110">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M110">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N110">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O110">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K111">
-        <v>0.06722689075630252</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="L111">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M111">
         <v>17</v>
       </c>
       <c r="N111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K112">
-        <v>0.06336088154269973</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L112">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M112">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N112">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="O112">
-        <v>0.07999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="K113">
-        <v>0.06291834002677377</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L113">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M113">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="N113">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>700</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K114">
-        <v>0.06172839506172839</v>
+        <v>0.07421875</v>
       </c>
       <c r="L114">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M114">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N114">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="O114">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>380</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K115">
-        <v>0.05498281786941581</v>
+        <v>0.06868131868131869</v>
       </c>
       <c r="L115">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M115">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N115">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="O115">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>275</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K116">
-        <v>0.05128205128205128</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="L116">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M116">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N116">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O116">
-        <v>0.28</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>333</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K117">
-        <v>0.04788732394366197</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="L117">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M117">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N117">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="O117">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>338</v>
+        <v>708</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K118">
-        <v>0.04411764705882353</v>
+        <v>0.05</v>
       </c>
       <c r="L118">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N118">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="O118">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K119">
-        <v>0.02635228848821082</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="L119">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M119">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N119">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="O119">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>702</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K120">
+        <v>0.04297994269340974</v>
+      </c>
+      <c r="L120">
+        <v>15</v>
+      </c>
+      <c r="M120">
+        <v>24</v>
+      </c>
+      <c r="N120">
+        <v>0.62</v>
+      </c>
+      <c r="O120">
+        <v>0.38</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K121">
+        <v>0.02479338842975207</v>
+      </c>
+      <c r="L121">
+        <v>18</v>
+      </c>
+      <c r="M121">
+        <v>27</v>
+      </c>
+      <c r="N121">
+        <v>0.67</v>
+      </c>
+      <c r="O121">
+        <v>0.33</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
